--- a/src/main/java/testdata/OrangeHRMTestData.xlsx
+++ b/src/main/java/testdata/OrangeHRMTestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
-    <sheet name="employee1" sheetId="3" r:id="rId2"/>
+    <sheet name="vacancy" sheetId="4" r:id="rId2"/>
+    <sheet name="employee1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>firstName</t>
   </si>
@@ -78,13 +78,145 @@
   </si>
   <si>
     <t>r.rani1961@gmail.com</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Kumari</t>
+  </si>
+  <si>
+    <t>Prasad</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>8983255891</t>
+  </si>
+  <si>
+    <t>8983255892</t>
+  </si>
+  <si>
+    <t>8983255893</t>
+  </si>
+  <si>
+    <t>8983255894</t>
+  </si>
+  <si>
+    <t>8983255895</t>
+  </si>
+  <si>
+    <t>8983255896</t>
+  </si>
+  <si>
+    <t>jobVacancy</t>
+  </si>
+  <si>
+    <t>Associate IT Manager</t>
+  </si>
+  <si>
+    <t>Junior Account Assistant</t>
+  </si>
+  <si>
+    <t>Payroll Administrator</t>
+  </si>
+  <si>
+    <t>QA lead</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Senior QA Lead</t>
+  </si>
+  <si>
+    <t>jobTitle</t>
+  </si>
+  <si>
+    <t>vacancyName</t>
+  </si>
+  <si>
+    <t>hiringManager</t>
+  </si>
+  <si>
+    <t>numberOfPositions</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Account Assistant</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Peter Mac Anderson</t>
+  </si>
+  <si>
+    <t>Prajakta Dhumal</t>
+  </si>
+  <si>
+    <t>Cecil Bonaparte</t>
+  </si>
+  <si>
+    <t>Charlie Carter</t>
+  </si>
+  <si>
+    <t>acc job</t>
+  </si>
+  <si>
+    <t>aut job</t>
+  </si>
+  <si>
+    <t>exe job</t>
+  </si>
+  <si>
+    <t>fin job</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +228,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,10 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,114 +557,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
